--- a/final_data_pipeline/output/325312longform_elec_options_nowhp.xlsx
+++ b/final_data_pipeline/output/325312longform_elec_options_nowhp.xlsx
@@ -558,7 +558,7 @@
         <v>34</v>
       </c>
       <c r="I2">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="J2">
         <v>8000</v>
@@ -573,10 +573,10 @@
         <v>1552586.958363536</v>
       </c>
       <c r="N2">
-        <v>1.550576923076923</v>
+        <v>1.459904774678112</v>
       </c>
       <c r="O2">
-        <v>1.658958333333333</v>
+        <v>1.554373915558126</v>
       </c>
       <c r="P2">
         <v>194.0733697954419</v>
@@ -717,7 +717,7 @@
         <v>34</v>
       </c>
       <c r="I5">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="J5">
         <v>8000</v>
@@ -732,10 +732,10 @@
         <v>427351.4765271254</v>
       </c>
       <c r="N5">
-        <v>1.550576923076923</v>
+        <v>1.459904774678112</v>
       </c>
       <c r="O5">
-        <v>1.658958333333333</v>
+        <v>1.554373915558126</v>
       </c>
       <c r="P5">
         <v>53.41893456589068</v>
@@ -929,7 +929,7 @@
         <v>34</v>
       </c>
       <c r="I9">
-        <v>10</v>
+        <v>13.17361111111111</v>
       </c>
       <c r="J9">
         <v>8000</v>
@@ -944,10 +944,10 @@
         <v>789975.8264209969</v>
       </c>
       <c r="N9">
-        <v>1.550576923076923</v>
+        <v>1.58937742977605</v>
       </c>
       <c r="O9">
-        <v>1.658958333333333</v>
+        <v>1.704024252511443</v>
       </c>
       <c r="P9">
         <v>98.74697830262463</v>
@@ -982,7 +982,7 @@
         <v>34</v>
       </c>
       <c r="I10">
-        <v>10</v>
+        <v>13.17361111111111</v>
       </c>
       <c r="J10">
         <v>8000</v>
@@ -997,10 +997,10 @@
         <v>790752.8407909875</v>
       </c>
       <c r="N10">
-        <v>1.550576923076923</v>
+        <v>1.58937742977605</v>
       </c>
       <c r="O10">
-        <v>1.658958333333333</v>
+        <v>1.704024252511443</v>
       </c>
       <c r="P10">
         <v>98.84410509887343</v>
